--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FCA88-739E-BA4F-B4A9-EA7026BDE889}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3643E-097F-1A40-ABA1-B78C9607A276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51520" yWindow="1740" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>Lewis Black</t>
   </si>
   <si>
-    <t>Ian McKellen</t>
-  </si>
-  <si>
     <t>Michael Clarke Duncan</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Plato</t>
+  </si>
+  <si>
+    <t>Bill Burr</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
   <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -915,25 +915,25 @@
         <v>14</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>3</v>
@@ -945,64 +945,64 @@
         <v>5</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
@@ -1017,10 +1017,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="12">
         <v>2</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
@@ -1362,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="12">
         <v>2</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
@@ -1441,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1465,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" s="20">
         <v>6</v>
@@ -1525,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -1606,20 +1606,20 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="12">
         <v>3</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
         <v>31</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
@@ -1703,10 +1703,10 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
         <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
       </c>
       <c r="F10" s="12">
         <v>3</v>

--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3643E-097F-1A40-ABA1-B78C9607A276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5C0F-99BC-8746-A60E-AB2E88455A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51520" yWindow="1740" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1740" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Parry</t>
   </si>
   <si>
-    <t>Armor</t>
-  </si>
-  <si>
     <t>Knowledge</t>
   </si>
   <si>
@@ -310,13 +307,76 @@
   </si>
   <si>
     <t>Bill Burr</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Woof</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>No Hands, Short Sighted</t>
+  </si>
+  <si>
+    <t>Bite (Natural Weapon, 1d8+1d6 damage), Keen Smell</t>
+  </si>
+  <si>
+    <t>Old Man Gregory</t>
+  </si>
+  <si>
+    <t>Big Al</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Mike Colter as Luke Cage</t>
+  </si>
+  <si>
+    <t>Luke Cage</t>
+  </si>
+  <si>
+    <t>Old Steve Rogers</t>
+  </si>
+  <si>
+    <t>Slow, Elderly</t>
+  </si>
+  <si>
+    <t>Mr. Fix It</t>
+  </si>
+  <si>
+    <t>Obligation (Daughter)</t>
+  </si>
+  <si>
+    <t>Hesitant</t>
+  </si>
+  <si>
+    <t>Raider</t>
+  </si>
+  <si>
+    <t>Wanted, Greedy</t>
+  </si>
+  <si>
+    <t>Natural Armor</t>
+  </si>
+  <si>
+    <t>Combat Reflexes (+2 to Recover Shaken or Stunned)</t>
+  </si>
+  <si>
+    <t>Varies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,8 +435,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +468,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,7 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,7 +558,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -485,6 +571,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,227 +954,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="9" width="6.83203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="20" customWidth="1"/>
-    <col min="15" max="15" width="11" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="2"/>
-    <col min="18" max="18" width="8.83203125" style="15" customWidth="1"/>
-    <col min="19" max="22" width="8.83203125" style="10" customWidth="1"/>
-    <col min="23" max="25" width="10.83203125" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" style="8" customWidth="1"/>
-    <col min="31" max="38" width="10.83203125" style="2"/>
-    <col min="39" max="39" width="10.83203125" style="8" customWidth="1"/>
-    <col min="40" max="42" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="10" width="6.83203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="19" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="8.83203125" style="15" customWidth="1"/>
+    <col min="20" max="23" width="8.83203125" style="10" customWidth="1"/>
+    <col min="24" max="26" width="10.83203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="2"/>
+    <col min="28" max="28" width="10.83203125" style="8" customWidth="1"/>
+    <col min="29" max="39" width="10.83203125" style="2"/>
+    <col min="40" max="40" width="10.83203125" style="8" customWidth="1"/>
+    <col min="41" max="43" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(SUM(G2:K2)-10)+(SUM(S2:AQ2)-5)/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="9" t="s">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2</v>
+      </c>
+      <c r="J2" s="12">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="19">
+        <v>6</v>
+      </c>
+      <c r="O2" s="19">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <f>2+K2+1+O2</f>
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>2+AC2+1</f>
         <v>4</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="R2" s="2">
+        <f>(J2+1)*20</f>
+        <v>120</v>
+      </c>
+      <c r="S2" s="15">
         <v>5</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>(SUM(F2:J2)-10)+(SUM(R2:AP2)-5)/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>2</v>
-      </c>
-      <c r="I2" s="12">
-        <v>5</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="20">
-        <v>6</v>
-      </c>
-      <c r="N2" s="20">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <f>2+J2+1</f>
-        <v>5</v>
-      </c>
-      <c r="P2" s="2">
-        <f t="shared" ref="P2:P10" si="0">2+AB2</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>(I2+1)*20</f>
-        <v>120</v>
-      </c>
-      <c r="R2" s="15">
-        <v>5</v>
-      </c>
-      <c r="S2" s="10">
-        <v>1</v>
-      </c>
       <c r="T2" s="10">
         <v>1</v>
       </c>
@@ -1076,172 +1189,178 @@
       <c r="V2" s="10">
         <v>1</v>
       </c>
-      <c r="AB2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="8"/>
+      <c r="W2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>1</v>
+      </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
-      <c r="AM2" s="8">
-        <v>2</v>
-      </c>
+      <c r="AF2" s="8"/>
       <c r="AN2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B10" si="1">(SUM(F3:J3)-10)+(SUM(R3:AP3)-5)/2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C14" si="0">(SUM(G3:K3)-10)+(SUM(S3:AQ3)-5)/2</f>
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="12">
-        <v>2</v>
-      </c>
       <c r="G3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="12">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="20">
+      <c r="N3" s="19">
         <v>6</v>
       </c>
-      <c r="N3" s="20">
+      <c r="O3" s="19">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O10" si="2">2+J3+1</f>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P14" si="1">2+K3+1+O3</f>
         <v>5</v>
       </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q10" si="3">I3*20</f>
+        <f t="shared" ref="Q3:Q14" si="2">2+AC3+1</f>
+        <v>4</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R14" si="3">J3*20</f>
         <v>40</v>
       </c>
-      <c r="R3" s="15">
-        <v>1</v>
-      </c>
-      <c r="S3" s="10">
-        <v>3</v>
+      <c r="S3" s="15">
+        <v>1</v>
       </c>
       <c r="T3" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" s="10">
-        <v>1</v>
-      </c>
-      <c r="W3" s="17">
+        <v>3</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="16">
         <v>4</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="AB3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="8"/>
+      <c r="Y3" s="28"/>
+      <c r="AC3" s="8">
+        <v>1</v>
+      </c>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>3</v>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8">
+        <v>1</v>
       </c>
       <c r="AN3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AO3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="19">
+        <v>6</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="12">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12">
         <v>4</v>
       </c>
-      <c r="H4" s="12">
-        <v>3</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="20">
-        <v>6</v>
-      </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R4" s="15">
-        <v>2</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="S4" s="15">
         <v>2</v>
       </c>
       <c r="T4" s="10">
@@ -1253,41 +1372,44 @@
       <c r="V4" s="10">
         <v>2</v>
       </c>
-      <c r="AB4" s="8"/>
+      <c r="W4" s="10">
+        <v>2</v>
+      </c>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
-      <c r="AE4" s="8">
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8">
         <v>5</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AK4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="12">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
       <c r="H5" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12">
         <v>2</v>
@@ -1295,200 +1417,206 @@
       <c r="J5" s="12">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
+      <c r="K5" s="12">
+        <v>2</v>
       </c>
       <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="20">
+      <c r="N5" s="19">
         <v>8</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="R5" s="15">
-        <v>1</v>
-      </c>
-      <c r="S5" s="10">
+      <c r="S5" s="15">
         <v>1</v>
       </c>
       <c r="T5" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="W5" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>2</v>
+      </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="2">
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="2">
         <v>4</v>
       </c>
-      <c r="AM5" s="8">
-        <v>3</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AN5" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="19">
+        <v>6</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="12">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12">
-        <v>2</v>
-      </c>
-      <c r="H6" s="12">
-        <v>4</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="20">
         <v>6</v>
       </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R6" s="15">
-        <v>1</v>
-      </c>
-      <c r="S6" s="10">
-        <v>2</v>
+      <c r="S6" s="15">
+        <v>1</v>
       </c>
       <c r="T6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="10">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10">
         <v>6</v>
       </c>
-      <c r="V6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="8"/>
+      <c r="W6" s="10">
+        <v>1</v>
+      </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
-      <c r="AG6" s="2">
+      <c r="AF6" s="8"/>
+      <c r="AH6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="19">
+        <v>6</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
-        <v>2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="20">
-        <v>6</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R7" s="15">
-        <v>1</v>
-      </c>
-      <c r="S7" s="10">
+      <c r="S7" s="15">
         <v>1</v>
       </c>
       <c r="T7" s="10">
@@ -1500,83 +1628,86 @@
       <c r="V7" s="10">
         <v>1</v>
       </c>
-      <c r="AA7" s="8">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="8"/>
+      <c r="W7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>3</v>
+      </c>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8">
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8">
         <v>5</v>
       </c>
-      <c r="AE7" s="8"/>
-      <c r="AJ7" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AF7" s="8"/>
+      <c r="AK7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="19">
+        <v>6</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2</v>
-      </c>
-      <c r="J8" s="12">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="20">
         <v>6</v>
       </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="R8" s="15">
-        <v>3</v>
-      </c>
-      <c r="S8" s="10">
-        <v>1</v>
+      <c r="S8" s="15">
+        <v>3</v>
       </c>
       <c r="T8" s="10">
         <v>1</v>
@@ -1585,352 +1716,750 @@
         <v>1</v>
       </c>
       <c r="V8" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="10">
+        <v>2</v>
+      </c>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="8">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="8">
         <v>4</v>
       </c>
-      <c r="AO8" s="2">
-        <v>2</v>
-      </c>
       <c r="AP8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AQ8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="19">
+        <v>4</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="12">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12">
-        <v>2</v>
-      </c>
-      <c r="I9" s="12">
-        <v>2</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="20">
         <v>4</v>
       </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="R9" s="15">
-        <v>1</v>
-      </c>
-      <c r="S9" s="10">
-        <v>3</v>
+      <c r="S9" s="15">
+        <v>1</v>
       </c>
       <c r="T9" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U9" s="10">
+        <v>2</v>
+      </c>
+      <c r="V9" s="10">
         <v>4</v>
       </c>
-      <c r="V9" s="10">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="8"/>
+      <c r="W9" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8">
+        <v>1</v>
+      </c>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="8">
-        <v>3</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="19">
+        <v>6</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="S10" s="15">
+        <v>2</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10">
+        <v>2</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1</v>
+      </c>
+      <c r="X10" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AH10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="K11" s="12"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="12">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3</v>
-      </c>
-      <c r="J10" s="12">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="23">
+        <v>4</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>3</v>
+      </c>
+      <c r="J12" s="23">
+        <v>2</v>
+      </c>
+      <c r="K12" s="23">
+        <v>5</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="22">
+        <v>8</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S12" s="24">
+        <v>3</v>
+      </c>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25">
+        <v>4</v>
+      </c>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25">
+        <v>3</v>
+      </c>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="22">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="22">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>4</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2</v>
+      </c>
+      <c r="J13" s="23">
+        <v>2</v>
+      </c>
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="22">
+        <v>4</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S13" s="24">
+        <v>2</v>
+      </c>
+      <c r="T13" s="25">
+        <v>2</v>
+      </c>
+      <c r="U13" s="25">
+        <v>4</v>
+      </c>
+      <c r="V13" s="25">
+        <v>3</v>
+      </c>
+      <c r="W13" s="25">
+        <v>1</v>
+      </c>
+      <c r="X13" s="22">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="26">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="22">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="22">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="12">
+        <v>3</v>
+      </c>
+      <c r="K14" s="12">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="19">
         <v>6</v>
       </c>
-      <c r="N10" s="20">
+      <c r="O14" s="19">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="R14" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="R10" s="15">
-        <v>2</v>
-      </c>
-      <c r="S10" s="10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10">
-        <v>2</v>
-      </c>
-      <c r="V10" s="10">
-        <v>1</v>
-      </c>
-      <c r="W10" s="17">
+      <c r="S14" s="15">
+        <v>1</v>
+      </c>
+      <c r="T14" s="10">
+        <v>2</v>
+      </c>
+      <c r="U14" s="10">
+        <v>1</v>
+      </c>
+      <c r="V14" s="10">
+        <v>2</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="K15" s="12"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="K16" s="12"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17" si="4">(SUM(G17:K17)-10)+(SUM(S17:AQ17)-5)/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="19">
+        <v>6</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ref="P17" si="5">2+K17+1+O17</f>
         <v>5</v>
       </c>
-      <c r="X10" s="17">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AG10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="J11" s="12"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="J12" s="12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="J13" s="12"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="J14" s="12"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="J15" s="12"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="J16" s="12"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="J17" s="12"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="AA17"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17" si="6">2+AC17+1</f>
+        <v>6</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" ref="R17" si="7">J17*20</f>
+        <v>40</v>
+      </c>
+      <c r="S17" s="15">
+        <v>3</v>
+      </c>
+      <c r="T17" s="10">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
+        <v>2</v>
+      </c>
+      <c r="V17" s="10">
+        <v>1</v>
+      </c>
+      <c r="W17" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="J18" s="12"/>
-      <c r="K18"/>
+      <c r="F18" s="4"/>
+      <c r="K18" s="12"/>
       <c r="L18"/>
-      <c r="AA18"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M18"/>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="J19" s="12"/>
-      <c r="K19"/>
+      <c r="F19" s="4"/>
+      <c r="K19" s="12"/>
       <c r="L19"/>
-      <c r="AA19"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M19"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="J20" s="12"/>
-      <c r="K20"/>
+      <c r="F20" s="4"/>
+      <c r="K20" s="12"/>
       <c r="L20"/>
-      <c r="AA20"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M20"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="J21" s="12"/>
-      <c r="K21"/>
+      <c r="F21" s="4"/>
+      <c r="K21" s="12"/>
       <c r="L21"/>
-      <c r="AA21"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M21"/>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="J22" s="12"/>
-      <c r="K22"/>
+      <c r="F22" s="4"/>
+      <c r="K22" s="12"/>
       <c r="L22"/>
-      <c r="AA22"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M22"/>
+      <c r="AB22" s="2"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="J23" s="12"/>
-      <c r="K23"/>
+      <c r="F23" s="4"/>
+      <c r="K23" s="12"/>
       <c r="L23"/>
-      <c r="AA23"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M23"/>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="J24" s="12"/>
-      <c r="K24"/>
+      <c r="F24" s="4"/>
+      <c r="K24" s="12"/>
       <c r="L24"/>
-      <c r="AA24"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J25" s="12"/>
-      <c r="K25"/>
+      <c r="M24"/>
+      <c r="AB24" s="2"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="K25" s="12"/>
       <c r="L25"/>
-      <c r="AA25"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J26" s="12"/>
-      <c r="K26"/>
+      <c r="M25"/>
+      <c r="AB25" s="2"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K26" s="12"/>
       <c r="L26"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J27" s="12"/>
-      <c r="K27"/>
+      <c r="M26"/>
+      <c r="AB26" s="2"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K27" s="12"/>
       <c r="L27"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J28" s="12"/>
-      <c r="K28"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K28" s="12"/>
       <c r="L28"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J29" s="12"/>
-      <c r="K29"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K29" s="12"/>
       <c r="L29"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J30" s="12"/>
-      <c r="K30"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K30" s="12"/>
       <c r="L30"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="J31" s="12"/>
-      <c r="K31"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K31" s="12"/>
       <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K32" s="12"/>
+      <c r="L32"/>
+      <c r="M32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF5C0F-99BC-8746-A60E-AB2E88455A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC33D2-69EB-7E4E-845C-DF9D231891B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1740" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="-60" windowWidth="43940" windowHeight="19980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -370,6 +370,117 @@
   </si>
   <si>
     <t>Varies</t>
+  </si>
+  <si>
+    <t>Deathpaw</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Bite (Natural Weapon, 2d8 damage), Keen Smell</t>
+  </si>
+  <si>
+    <t>Weylan Vance</t>
+  </si>
+  <si>
+    <t>Kilian Weber</t>
+  </si>
+  <si>
+    <t>Nola Marigold</t>
+  </si>
+  <si>
+    <t>Kayden Kyle Morris</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>Atsila "Fire"</t>
+  </si>
+  <si>
+    <t>Inola "Black Fox"</t>
+  </si>
+  <si>
+    <t>Kamama "Butterfly"</t>
+  </si>
+  <si>
+    <t>Tayanita "Beaver"</t>
+  </si>
+  <si>
+    <t>Unega "White"</t>
+  </si>
+  <si>
+    <t>Adawehi "Sage"</t>
+  </si>
+  <si>
+    <t>Ahuli "Drum"</t>
+  </si>
+  <si>
+    <t>Dustu "Spring Frog"</t>
+  </si>
+  <si>
+    <t>Wesa "Cat"</t>
+  </si>
+  <si>
+    <t>Kanuna "Bullfrog"</t>
+  </si>
+  <si>
+    <t>Waya "Wolf"</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>All Thumbs</t>
+  </si>
+  <si>
+    <t>Curious</t>
+  </si>
+  <si>
+    <t>Overconfident</t>
+  </si>
+  <si>
+    <t>Pascifist</t>
+  </si>
+  <si>
+    <t>Ruthless</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Anemic</t>
+  </si>
+  <si>
+    <t>Alertness</t>
+  </si>
+  <si>
+    <t>Fleet-Footed</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Free-Runner</t>
+  </si>
+  <si>
+    <t>Humiliate</t>
+  </si>
+  <si>
+    <t>Marksman</t>
+  </si>
+  <si>
+    <t>Healer</t>
+  </si>
+  <si>
+    <t>Danger-Sense</t>
   </si>
 </sst>
 </file>
@@ -954,10 +1065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,11 +1235,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <f>(SUM(G2:K2)-10)+(SUM(S2:AQ2)-5)/2</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1151,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>74</v>
@@ -1167,11 +1279,11 @@
       </c>
       <c r="P2" s="2">
         <f>2+K2+1+O2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="2">
         <f>2+AC2+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" s="2">
         <f>(J2+1)*20</f>
@@ -1193,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="AC2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AN2" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="8">
         <v>1</v>
@@ -1216,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C14" si="0">(SUM(G3:K3)-10)+(SUM(S3:AQ3)-5)/2</f>
+        <f t="shared" ref="C3:C22" si="0">(SUM(G3:K3)-10)+(SUM(S3:AQ3)-5)/2</f>
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -1256,15 +1368,15 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P14" si="1">2+K3+1+O3</f>
+        <f t="shared" ref="P3:P17" si="1">2+K3+1+O3</f>
         <v>5</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q14" si="2">2+AC3+1</f>
+        <f t="shared" ref="Q3:Q17" si="2">2+AC3+1</f>
         <v>4</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R14" si="3">J3*20</f>
+        <f t="shared" ref="R3:R17" si="3">J3*20</f>
         <v>40</v>
       </c>
       <c r="S3" s="15">
@@ -1930,355 +2042,408 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="23">
-        <v>4</v>
-      </c>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23">
-        <v>3</v>
-      </c>
-      <c r="J12" s="23">
-        <v>2</v>
-      </c>
-      <c r="K12" s="23">
-        <v>5</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="22">
-        <v>8</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="S12" s="24">
-        <v>3</v>
-      </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25">
-        <v>4</v>
-      </c>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25">
-        <v>3</v>
-      </c>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="22">
-        <v>5</v>
-      </c>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="22">
-        <v>2</v>
-      </c>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
+      <c r="K12" s="12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B13" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="G13" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="23">
         <v>2</v>
       </c>
       <c r="K13" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="N13" s="22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O13" s="22">
         <v>0</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="S13" s="24">
-        <v>2</v>
-      </c>
-      <c r="T13" s="25">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T13" s="25"/>
       <c r="U13" s="25">
         <v>4</v>
       </c>
-      <c r="V13" s="25">
-        <v>3</v>
-      </c>
+      <c r="V13" s="25"/>
       <c r="W13" s="25">
-        <v>1</v>
-      </c>
-      <c r="X13" s="22">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="22"/>
       <c r="AB13" s="26"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="22"/>
+      <c r="AC13" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="22">
+        <v>5</v>
+      </c>
       <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
-      <c r="AJ13" s="22">
-        <v>2</v>
-      </c>
+      <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
       <c r="AM13" s="22"/>
-      <c r="AN13" s="26">
-        <v>2</v>
-      </c>
+      <c r="AN13" s="26"/>
       <c r="AO13" s="22">
         <v>2</v>
       </c>
-      <c r="AP13" s="22">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22">
+        <v>1</v>
+      </c>
       <c r="AR13" s="21"/>
       <c r="AS13" s="21"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="22">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="12">
-        <v>3</v>
-      </c>
-      <c r="H14" s="12">
-        <v>3</v>
-      </c>
-      <c r="I14" s="12">
-        <v>3</v>
-      </c>
-      <c r="J14" s="12">
-        <v>3</v>
-      </c>
-      <c r="K14" s="12">
-        <v>3</v>
-      </c>
-      <c r="L14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="19">
+        <f t="shared" ref="C14" si="4">(SUM(G14:K14)-10)+(SUM(S14:AQ14)-5)/2</f>
+        <v>13.5</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="23">
+        <v>5</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>2</v>
+      </c>
+      <c r="J14" s="23">
+        <v>3</v>
+      </c>
+      <c r="K14" s="23">
+        <v>3</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="22">
         <v>6</v>
       </c>
-      <c r="O14" s="19">
-        <v>0</v>
+      <c r="O14" s="22">
+        <v>1</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="S14" s="15">
-        <v>1</v>
-      </c>
-      <c r="T14" s="10">
-        <v>2</v>
-      </c>
-      <c r="U14" s="10">
-        <v>1</v>
-      </c>
-      <c r="V14" s="10">
-        <v>2</v>
-      </c>
-      <c r="W14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>2</v>
-      </c>
+      <c r="S14" s="24">
+        <v>3</v>
+      </c>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25">
+        <v>4</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25">
+        <v>5</v>
+      </c>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="22">
+        <v>4</v>
+      </c>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="22">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="22"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="K15" s="12"/>
-      <c r="L15"/>
-      <c r="M15"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="K16" s="12"/>
-      <c r="L16"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23">
+        <v>2</v>
+      </c>
+      <c r="H16" s="23">
+        <v>4</v>
+      </c>
+      <c r="I16" s="23">
+        <v>2</v>
+      </c>
+      <c r="J16" s="23">
+        <v>2</v>
+      </c>
+      <c r="K16" s="23">
+        <v>2</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="22">
+        <v>4</v>
+      </c>
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S16" s="24">
+        <v>2</v>
+      </c>
+      <c r="T16" s="25">
+        <v>2</v>
+      </c>
+      <c r="U16" s="25">
+        <v>4</v>
+      </c>
+      <c r="V16" s="25">
+        <v>3</v>
+      </c>
+      <c r="W16" s="25">
+        <v>1</v>
+      </c>
+      <c r="X16" s="22">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="26">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="22">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="22">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17" si="4">(SUM(G17:K17)-10)+(SUM(S17:AQ17)-5)/2</f>
-        <v>8.5</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N17" s="19">
         <v>6</v>
@@ -2287,179 +2452,1075 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17" si="5">2+K17+1+O17</f>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q17" s="2">
-        <f t="shared" ref="Q17" si="6">2+AC17+1</f>
-        <v>6</v>
-      </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17" si="7">J17*20</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="S17" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>4</v>
       </c>
       <c r="AC17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN17" s="8">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>4</v>
       </c>
       <c r="AP17" s="2">
         <v>2</v>
       </c>
-      <c r="AQ17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="K18" s="12"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="K19" s="12"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f>(SUM(G24:K24)-10)+(SUM(S19:AQ19)-5)/2</f>
+        <v>-2.5</v>
+      </c>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>-12.5</v>
+      </c>
       <c r="K20" s="12"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>-12.5</v>
+      </c>
       <c r="K21" s="12"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>-12.5</v>
+      </c>
       <c r="K22" s="12"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="K23" s="12"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="K24" s="12"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="K25" s="12"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="K26" s="12"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="K27" s="12"/>
-      <c r="L27"/>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="K28" s="12"/>
-      <c r="L28"/>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="K29" s="12"/>
-      <c r="L29"/>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:C35" si="5">(SUM(G24:K24)-10)+(SUM(S24:AQ24)-5)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="12">
+        <v>2</v>
+      </c>
+      <c r="H24" s="12">
+        <v>2</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3</v>
+      </c>
+      <c r="J24" s="12">
+        <v>2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="19">
+        <v>6</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" ref="P24:P35" si="6">2+K24+1+O24</f>
+        <v>4</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" ref="Q24:Q35" si="7">2+AC24+1</f>
+        <v>3</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" ref="R24:R35" si="8">J24*20</f>
+        <v>40</v>
+      </c>
+      <c r="S24" s="15">
+        <v>1</v>
+      </c>
+      <c r="T24" s="10">
+        <v>1</v>
+      </c>
+      <c r="U24" s="10">
+        <v>1</v>
+      </c>
+      <c r="V24" s="10">
+        <v>1</v>
+      </c>
+      <c r="W24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="12">
+        <v>3</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2</v>
+      </c>
+      <c r="I25" s="12">
+        <v>2</v>
+      </c>
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" s="19">
+        <v>6</v>
+      </c>
+      <c r="O25" s="19">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="S25" s="15">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
+        <v>5</v>
+      </c>
+      <c r="V25" s="10">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2</v>
+      </c>
+      <c r="H26" s="12">
+        <v>4</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26" s="19">
+        <v>8</v>
+      </c>
+      <c r="O26" s="19">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="S26" s="15">
+        <v>4</v>
+      </c>
+      <c r="T26" s="10">
+        <v>1</v>
+      </c>
+      <c r="U26" s="10">
+        <v>1</v>
+      </c>
+      <c r="V26" s="10">
+        <v>1</v>
+      </c>
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2</v>
+      </c>
+      <c r="I27" s="12">
+        <v>2</v>
+      </c>
+      <c r="J27" s="12">
+        <v>2</v>
+      </c>
+      <c r="K27" s="12">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="19">
+        <v>6</v>
+      </c>
+      <c r="O27" s="19">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S27" s="15">
+        <v>1</v>
+      </c>
+      <c r="T27" s="10">
+        <v>1</v>
+      </c>
+      <c r="U27" s="10">
+        <v>1</v>
+      </c>
+      <c r="V27" s="10">
+        <v>4</v>
+      </c>
+      <c r="W27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12">
+        <v>5</v>
+      </c>
+      <c r="I28" s="12">
+        <v>2</v>
+      </c>
+      <c r="J28" s="12">
+        <v>1</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" t="s">
+        <v>143</v>
+      </c>
+      <c r="N28" s="19">
+        <v>4</v>
+      </c>
+      <c r="O28" s="19">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="S28" s="15">
+        <v>1</v>
+      </c>
+      <c r="T28" s="10">
+        <v>4</v>
+      </c>
+      <c r="U28" s="10">
+        <v>1</v>
+      </c>
+      <c r="V28" s="10">
+        <v>1</v>
+      </c>
+      <c r="W28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2</v>
+      </c>
+      <c r="J29" s="12">
+        <v>2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="19">
+        <v>6</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S29" s="15">
+        <v>1</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
+        <v>1</v>
+      </c>
+      <c r="V29" s="10">
+        <v>1</v>
+      </c>
+      <c r="W29" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="K30" s="12"/>
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="K31" s="12"/>
-      <c r="L31"/>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="K32" s="12"/>
-      <c r="L32"/>
-      <c r="M32"/>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <v>2</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>3</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="19">
+        <v>6</v>
+      </c>
+      <c r="O31" s="19">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S31" s="15">
+        <v>1</v>
+      </c>
+      <c r="T31" s="10">
+        <v>1</v>
+      </c>
+      <c r="U31" s="10">
+        <v>1</v>
+      </c>
+      <c r="V31" s="10">
+        <v>1</v>
+      </c>
+      <c r="W31" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="12">
+        <v>3</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <v>2</v>
+      </c>
+      <c r="J32" s="12">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="19">
+        <v>6</v>
+      </c>
+      <c r="O32" s="19">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S32" s="15">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10">
+        <v>1</v>
+      </c>
+      <c r="U32" s="10">
+        <v>1</v>
+      </c>
+      <c r="V32" s="10">
+        <v>1</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12">
+        <v>2</v>
+      </c>
+      <c r="I33" s="12">
+        <v>2</v>
+      </c>
+      <c r="J33" s="12">
+        <v>2</v>
+      </c>
+      <c r="K33" s="12">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="19">
+        <v>6</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="S33" s="15">
+        <v>1</v>
+      </c>
+      <c r="T33" s="10">
+        <v>1</v>
+      </c>
+      <c r="U33" s="10">
+        <v>1</v>
+      </c>
+      <c r="V33" s="10">
+        <v>1</v>
+      </c>
+      <c r="W33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AN33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="12">
+        <v>4</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2</v>
+      </c>
+      <c r="I34" s="12">
+        <v>2</v>
+      </c>
+      <c r="J34" s="12">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N34" s="19">
+        <v>6</v>
+      </c>
+      <c r="O34" s="19">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="S34" s="15">
+        <v>4</v>
+      </c>
+      <c r="T34" s="10">
+        <v>1</v>
+      </c>
+      <c r="U34" s="10">
+        <v>1</v>
+      </c>
+      <c r="V34" s="10">
+        <v>1</v>
+      </c>
+      <c r="W34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="2"/>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
+      <c r="I35" s="12">
+        <v>2</v>
+      </c>
+      <c r="J35" s="12">
+        <v>3</v>
+      </c>
+      <c r="K35" s="12">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>140</v>
+      </c>
+      <c r="M35" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" s="19">
+        <v>6</v>
+      </c>
+      <c r="O35" s="19">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="S35" s="15">
+        <v>1</v>
+      </c>
+      <c r="T35" s="10">
+        <v>1</v>
+      </c>
+      <c r="U35" s="10">
+        <v>1</v>
+      </c>
+      <c r="V35" s="10">
+        <v>1</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="K36" s="12"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="AB36" s="2"/>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="K37" s="12"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="AB37" s="2"/>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="K38" s="12"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="AB38" s="2"/>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="K39" s="12"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K40" s="12"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="AB40" s="2"/>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41" si="9">(SUM(G41:K41)-10)+(SUM(S41:AQ41)-5)/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="12">
+        <v>2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>2</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2</v>
+      </c>
+      <c r="J41" s="12">
+        <v>2</v>
+      </c>
+      <c r="K41" s="12">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>109</v>
+      </c>
+      <c r="M41" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="19">
+        <v>6</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" ref="P41" si="10">2+K41+1+O41</f>
+        <v>5</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" ref="Q41" si="11">2+AC41+1</f>
+        <v>6</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" ref="R41" si="12">J41*20</f>
+        <v>40</v>
+      </c>
+      <c r="S41" s="15">
+        <v>3</v>
+      </c>
+      <c r="T41" s="10">
+        <v>1</v>
+      </c>
+      <c r="U41" s="10">
+        <v>2</v>
+      </c>
+      <c r="V41" s="10">
+        <v>1</v>
+      </c>
+      <c r="W41" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN41" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K42" s="12"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K43" s="12"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K44" s="12"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K45" s="12"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="K46" s="12"/>
+      <c r="L46"/>
+      <c r="M46"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265C3BC-F8BF-DC46-8AC3-429D0B528A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CE903-D1C8-A049-88AC-D6A5620B24E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -517,6 +517,21 @@
   </si>
   <si>
     <t>Ugly, Discriminated</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Super Mutant Soldier</t>
+  </si>
+  <si>
+    <t>Helm Ranger</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Improved Sweep, Size+1</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B40" sqref="B40"/>
+      <selection pane="topRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <f>(SUM(G2:K2)-10)+(SUM(S2:AQ2)-5)/2</f>
@@ -1462,7 +1477,7 @@
         <v>147</v>
       </c>
       <c r="B4" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C6" si="0">(SUM(G4:K4)-10)+(SUM(S4:AQ4)-5)/2</f>
@@ -1561,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B5" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -1662,7 +1677,7 @@
         <v>152</v>
       </c>
       <c r="B6" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -1809,7 +1824,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8" si="1">(SUM(G8:K8)-10)+(SUM(S8:AQ8)-5)/2</f>
@@ -3322,8 +3337,8 @@
       <c r="A33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
+      <c r="B33" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
@@ -3773,28 +3788,166 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="18">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41:C42" si="10">(SUM(G41:K41)-10)+(SUM(S41:AQ41)-5)/2</f>
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="K41" s="12"/>
+      <c r="G41" s="12">
+        <v>2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2</v>
+      </c>
+      <c r="J41" s="12">
+        <v>6</v>
+      </c>
+      <c r="K41" s="12">
+        <v>5</v>
+      </c>
       <c r="L41"/>
-      <c r="M41"/>
+      <c r="M41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N41" s="19">
+        <v>6</v>
+      </c>
+      <c r="O41" s="19">
+        <v>2</v>
+      </c>
+      <c r="P41" s="2">
+        <f>2+K41+1+O41</f>
+        <v>10</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" ref="Q41:Q42" si="11">2+AC41+1</f>
+        <v>6</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" ref="R41:R42" si="12">J41*20</f>
+        <v>120</v>
+      </c>
+      <c r="S41" s="15">
+        <v>1</v>
+      </c>
+      <c r="T41" s="10">
+        <v>1</v>
+      </c>
+      <c r="U41" s="10">
+        <v>2</v>
+      </c>
+      <c r="V41" s="10">
+        <v>1</v>
+      </c>
+      <c r="W41" s="10">
+        <v>1</v>
+      </c>
       <c r="AB41" s="2"/>
+      <c r="AC41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN41" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="18">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="K42" s="12"/>
+      <c r="G42" s="12">
+        <v>3</v>
+      </c>
+      <c r="H42" s="12">
+        <v>3</v>
+      </c>
+      <c r="I42" s="12">
+        <v>3</v>
+      </c>
+      <c r="J42" s="12">
+        <v>2</v>
+      </c>
+      <c r="K42" s="12">
+        <v>3</v>
+      </c>
       <c r="L42"/>
       <c r="M42"/>
+      <c r="N42" s="19">
+        <v>6</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" ref="P41:P42" si="13">2+K42+1+O42</f>
+        <v>6</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="S42" s="15">
+        <v>1</v>
+      </c>
+      <c r="T42" s="10">
+        <v>3</v>
+      </c>
+      <c r="U42" s="10">
+        <v>3</v>
+      </c>
+      <c r="V42" s="10">
+        <v>3</v>
+      </c>
+      <c r="W42" s="10">
+        <v>2</v>
+      </c>
       <c r="AB42" s="2"/>
+      <c r="AC42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="8">
+        <v>4</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
@@ -3822,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ref="C45" si="10">(SUM(G45:K45)-10)+(SUM(S45:AQ45)-5)/2</f>
+        <f t="shared" ref="C45" si="14">(SUM(G45:K45)-10)+(SUM(S45:AQ45)-5)/2</f>
         <v>8.5</v>
       </c>
       <c r="D45" t="s">
@@ -3862,15 +4015,15 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" ref="P45" si="11">2+K45+1+O45</f>
+        <f t="shared" ref="P45" si="15">2+K45+1+O45</f>
         <v>5</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" ref="Q45" si="12">2+AC45+1</f>
+        <f t="shared" ref="Q45" si="16">2+AC45+1</f>
         <v>6</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" ref="R45" si="13">J45*20</f>
+        <f t="shared" ref="R45" si="17">J45*20</f>
         <v>40</v>
       </c>
       <c r="S45" s="15">
